--- a/examples.xlsx
+++ b/examples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yj/Nutstore Files/我的坚果云/900 My_Code/gurobi_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C778225-14E5-DC45-8C92-101DE5F77FBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4B89AA-F91A-BD42-AB8C-2CD3AA26FCBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="1760" windowWidth="22240" windowHeight="14940" xr2:uid="{204847D2-88C7-924E-AB77-2CF248D9DECF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="17540" xr2:uid="{204847D2-88C7-924E-AB77-2CF248D9DECF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Read a model from a file</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,10 +310,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t># 1 Set the number of solutions
+model.setParam(GRB.Param.PoolSolutions, 1024)
+model.setParam(GRB.Param.PoolGap, 0.1)
+model.setParam(GRB.Param.PoolSearchMode, 2)
+# 2 Print the solution
+# Print objective values of solutions
+for e in range (20):
+[TAB] model.setParam(GRB.Param.SolutionNumber, e)
+[TAB] print ('%g' % model.PoolObjVal, end=' ')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Capacity-constrained multi-commodity problem
 1) The objective function can be set up when building variables
 2) the use of list, dict, multidict is worth reference
 3) the use of sum: we can use '*' to sum all the related terms up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>printSolution() might be useful</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,8 +741,8 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -734,7 +750,7 @@
     <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17">
@@ -839,7 +855,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34">
+    <row r="9" spans="1:4" ht="17">
       <c r="A9" s="8"/>
       <c r="B9" s="6">
         <v>8</v>
@@ -911,7 +927,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="187">
       <c r="A15" s="8"/>
       <c r="B15" s="6">
         <v>14</v>
@@ -919,9 +935,11 @@
       <c r="C15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="D15" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17">
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
@@ -931,7 +949,9 @@
       <c r="C16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8"/>
@@ -993,7 +1013,7 @@
       </c>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" ht="153">
+    <row r="23" spans="1:4" ht="123" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="6">
         <v>22</v>
@@ -1002,7 +1022,7 @@
         <v>28</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4">

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yj/Nutstore Files/我的坚果云/900 My_Code/gurobi_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4B89AA-F91A-BD42-AB8C-2CD3AA26FCBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65025C9B-D0F0-6648-A431-162614FBD9D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="17540" xr2:uid="{204847D2-88C7-924E-AB77-2CF248D9DECF}"/>
+    <workbookView xWindow="-22240" yWindow="460" windowWidth="22240" windowHeight="14940" xr2:uid="{204847D2-88C7-924E-AB77-2CF248D9DECF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Read a model from a file</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +330,24 @@
   </si>
   <si>
     <t>printSolution() might be useful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transform model to a saperate code file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saperate py data file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saperate db data file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saperate xlsx. data file
+Use 'xlrd' module to load data
+Use IndexError to detect the botton line</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +414,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -420,6 +438,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -740,17 +761,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637CA155-2F9E-6C46-A5BB-A433CF495A49}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17">
@@ -763,12 +784,12 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="119">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" ht="102">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6">
@@ -781,8 +802,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="170">
-      <c r="A3" s="8"/>
+    <row r="3" spans="1:4" ht="153">
+      <c r="A3" s="9"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
@@ -794,7 +815,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="34">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="6">
@@ -807,8 +828,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="68">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:4" ht="51">
+      <c r="A5" s="9"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
@@ -819,8 +840,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="51">
-      <c r="A6" s="8"/>
+    <row r="6" spans="1:4" ht="34">
+      <c r="A6" s="9"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
@@ -832,7 +853,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="51">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
@@ -844,7 +865,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="34">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
@@ -856,7 +877,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="17">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
@@ -867,8 +888,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="51">
-      <c r="A10" s="8"/>
+    <row r="10" spans="1:4" ht="34">
+      <c r="A10" s="9"/>
       <c r="B10" s="6">
         <v>9</v>
       </c>
@@ -879,8 +900,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="68">
-      <c r="A11" s="8"/>
+    <row r="11" spans="1:4" ht="51">
+      <c r="A11" s="9"/>
       <c r="B11" s="6">
         <v>10</v>
       </c>
@@ -891,8 +912,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="153">
-      <c r="A12" s="8"/>
+    <row r="12" spans="1:4" ht="136">
+      <c r="A12" s="9"/>
       <c r="B12" s="6">
         <v>11</v>
       </c>
@@ -903,8 +924,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="85">
-      <c r="A13" s="8"/>
+    <row r="13" spans="1:4" ht="68">
+      <c r="A13" s="9"/>
       <c r="B13" s="6">
         <v>12</v>
       </c>
@@ -915,8 +936,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="136">
-      <c r="A14" s="8"/>
+    <row r="14" spans="1:4" ht="119">
+      <c r="A14" s="9"/>
       <c r="B14" s="6">
         <v>13</v>
       </c>
@@ -927,8 +948,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="187">
-      <c r="A15" s="8"/>
+    <row r="15" spans="1:4" ht="170">
+      <c r="A15" s="9"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
@@ -940,7 +961,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="17">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="6">
@@ -953,48 +974,56 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="8"/>
+    <row r="17" spans="1:4" ht="17">
+      <c r="A17" s="9"/>
       <c r="B17" s="6">
         <v>16</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="8"/>
+      <c r="D17" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17">
+      <c r="A18" s="9"/>
       <c r="B18" s="6">
         <v>17</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="8"/>
+      <c r="D18" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="51">
+      <c r="A19" s="9"/>
       <c r="B19" s="6">
         <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="8"/>
+      <c r="D19" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17">
+      <c r="A20" s="9"/>
       <c r="B20" s="6">
         <v>19</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="6">
         <v>20</v>
       </c>
@@ -1004,7 +1033,7 @@
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="6">
         <v>21</v>
       </c>
@@ -1014,7 +1043,7 @@
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" ht="123" customHeight="1">
-      <c r="A23" s="8"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="6">
         <v>22</v>
       </c>
@@ -1026,7 +1055,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="6">
         <v>23</v>
       </c>
@@ -1036,7 +1065,7 @@
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="8"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="6">
         <v>24</v>
       </c>
@@ -1046,7 +1075,7 @@
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="6">
         <v>25</v>
       </c>
@@ -1056,7 +1085,7 @@
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="6">
         <v>26</v>
       </c>
@@ -1066,7 +1095,7 @@
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="8"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="6">
         <v>27</v>
       </c>
@@ -1076,7 +1105,7 @@
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="8"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="6">
         <v>28</v>
       </c>
@@ -1086,7 +1115,7 @@
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="8"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="6">
         <v>29</v>
       </c>
@@ -1096,7 +1125,7 @@
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="6">
@@ -1108,7 +1137,7 @@
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="8"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="6">
         <v>31</v>
       </c>
@@ -1118,7 +1147,7 @@
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="8"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="6">
         <v>32</v>
       </c>
@@ -1128,7 +1157,7 @@
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="8"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="6">
         <v>33</v>
       </c>
@@ -1138,7 +1167,7 @@
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="8"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="6">
         <v>34</v>
       </c>
@@ -1148,7 +1177,7 @@
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="8"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="6">
         <v>35</v>
       </c>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yj/Nutstore Files/我的坚果云/900 My_Code/gurobi_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65025C9B-D0F0-6648-A431-162614FBD9D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E63C19-872C-D644-8AF4-06D41CBA054C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22240" yWindow="460" windowWidth="22240" windowHeight="14940" xr2:uid="{204847D2-88C7-924E-AB77-2CF248D9DECF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Read a model from a file</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,6 +348,10 @@
     <t>Saperate xlsx. data file
 Use 'xlrd' module to load data
 Use IndexError to detect the botton line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The use of MIP starts--The example of computes an initial, heuristic solution and passes that solution to the MIP solver.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -762,8 +766,8 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1022,7 +1026,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="34">
       <c r="A21" s="9"/>
       <c r="B21" s="6">
         <v>20</v>
@@ -1030,7 +1034,9 @@
       <c r="C21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9"/>
@@ -1042,7 +1048,7 @@
       </c>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" ht="123" customHeight="1">
+    <row r="23" spans="1:4" ht="68">
       <c r="A23" s="9"/>
       <c r="B23" s="6">
         <v>22</v>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yj/Nutstore Files/我的坚果云/900 My_Code/gurobi_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E63C19-872C-D644-8AF4-06D41CBA054C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5D9835-3A5B-B547-B3C3-1CACC1BFBB8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22240" yWindow="460" windowWidth="22240" windowHeight="14940" xr2:uid="{204847D2-88C7-924E-AB77-2CF248D9DECF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Read a model from a file</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,6 +352,11 @@
   </si>
   <si>
     <t>The use of MIP starts--The example of computes an initial, heuristic solution and passes that solution to the MIP solver.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python matrix API to formulate the n-queens problem
+1) x = m.addMVar((n, n))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,8 +771,8 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1038,7 +1043,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="51">
       <c r="A22" s="9"/>
       <c r="B22" s="6">
         <v>21</v>
@@ -1046,7 +1051,9 @@
       <c r="C22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="68">
       <c r="A23" s="9"/>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yj/Nutstore Files/我的坚果云/900 My_Code/gurobi_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5D9835-3A5B-B547-B3C3-1CACC1BFBB8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB6174C-9BE5-5944-B19D-6A3AC517C607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22240" yWindow="460" windowWidth="22240" windowHeight="14940" xr2:uid="{204847D2-88C7-924E-AB77-2CF248D9DECF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Read a model from a file</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,6 +357,36 @@
   <si>
     <t>Python matrix API to formulate the n-queens problem
 1) x = m.addMVar((n, n))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Solve for efficient frontier by varying target return
+frontier = pd.Series()
+for r in np.linspace(stock_return.min(), stock_return.max(), 100):
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>target.rhs = r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    m.optimize()
+    frontier.loc[sqrt(portfolio_risk.getValue())] = r</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,8 +801,8 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1067,7 +1097,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="102">
       <c r="A24" s="9"/>
       <c r="B24" s="6">
         <v>23</v>
@@ -1075,7 +1105,9 @@
       <c r="C24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="9"/>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yj/Nutstore Files/我的坚果云/900 My_Code/gurobi_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB6174C-9BE5-5944-B19D-6A3AC517C607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C83AFD-725B-1944-B0FF-CBBD5CC20B72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22240" yWindow="460" windowWidth="22240" windowHeight="14940" xr2:uid="{204847D2-88C7-924E-AB77-2CF248D9DECF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28060" windowHeight="17540" xr2:uid="{204847D2-88C7-924E-AB77-2CF248D9DECF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Read a model from a file</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,6 +387,16 @@
     m.optimize()
     frontier.loc[sqrt(portfolio_risk.getValue())] = r</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If the problem cannot be solved, use IIS to find a set of conflicting constraints.
+1) gp.tuplelist()
+2) Do IIS: m.computeIIS()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If the model is infeasible, it computes an IIS, removes one of the associated constraints from the model, and re-solves. This process is repeated until the model becomes feasible.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,8 +811,8 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1119,7 +1129,7 @@
       </c>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" ht="68">
       <c r="A26" s="9"/>
       <c r="B26" s="6">
         <v>25</v>
@@ -1127,9 +1137,11 @@
       <c r="C26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="D26" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="51">
       <c r="A27" s="9"/>
       <c r="B27" s="6">
         <v>26</v>
@@ -1137,7 +1149,9 @@
       <c r="C27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="9"/>
